--- a/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:54:26+00:00</t>
+    <t>2024-09-18T08:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4857" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4853" uniqueCount="699">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T08:16:45+00:00</t>
+    <t>2024-10-02T08:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1635,9 +1635,6 @@
     <t>Observation.dataAbsentReason.coding.code</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Observation.dataAbsentReason.coding.display</t>
   </si>
   <si>
@@ -1823,7 +1820,7 @@
 </t>
   </si>
   <si>
-    <t>Dispositif utilisé pour l'observation
+    <t>Dispositif utilisé pour récolter l'information. Ce dispositif peut être l'application permettant de renseigner la valeur. 
 Si la mesure a été faite par un objet connecté (Profil PhdDevice), cette référence est obligatoire</t>
   </si>
   <si>
@@ -11098,7 +11095,7 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>122</v>
@@ -11113,7 +11110,7 @@
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11220,7 +11217,7 @@
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -11458,7 +11455,7 @@
         <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>122</v>
@@ -11473,7 +11470,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11580,7 +11577,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11700,7 +11697,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11760,9 +11757,7 @@
       <c r="M77" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N77" t="s" s="2">
-        <v>521</v>
-      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>315</v>
       </c>
@@ -11822,7 +11817,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11848,10 +11843,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11882,9 +11877,7 @@
       <c r="M78" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N78" t="s" s="2">
-        <v>521</v>
-      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>324</v>
       </c>
@@ -11944,7 +11937,7 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>105</v>
@@ -11970,10 +11963,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12066,7 +12059,7 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>105</v>
@@ -12092,10 +12085,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12188,7 +12181,7 @@
         <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>105</v>
@@ -12214,14 +12207,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12243,16 +12236,16 @@
         <v>264</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12281,7 +12274,7 @@
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12299,7 +12292,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12317,27 +12310,27 @@
         <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AO81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP81" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>535</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12360,19 +12353,19 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12421,7 +12414,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12442,10 +12435,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12456,10 +12449,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12485,13 +12478,13 @@
         <v>264</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12521,7 +12514,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12539,7 +12532,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12557,27 +12550,27 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AO83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP83" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12692,10 +12685,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12812,10 +12805,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12879,7 +12872,7 @@
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -12932,10 +12925,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13054,10 +13047,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13083,16 +13076,16 @@
         <v>264</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13121,7 +13114,7 @@
       </c>
       <c r="Y88" s="2"/>
       <c r="Z88" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -13139,7 +13132,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13160,10 +13153,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13174,10 +13167,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13292,10 +13285,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13412,10 +13405,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13479,7 +13472,7 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13532,10 +13525,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13654,10 +13647,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13680,16 +13673,16 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13739,7 +13732,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13757,27 +13750,27 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="AN93" t="s" s="2">
+      <c r="AO93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP93" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>579</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13800,16 +13793,16 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13859,7 +13852,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13877,27 +13870,27 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AN94" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AO94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>588</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13920,19 +13913,19 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13981,7 +13974,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13993,19 +13986,19 @@
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AK95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AN95" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -14016,10 +14009,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14134,10 +14127,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14254,14 +14247,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14283,10 +14276,10 @@
         <v>114</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>117</v>
@@ -14341,7 +14334,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14376,10 +14369,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14402,13 +14395,13 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14459,7 +14452,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14468,7 +14461,7 @@
         <v>93</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>105</v>
@@ -14480,10 +14473,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14494,10 +14487,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14520,13 +14513,13 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14577,7 +14570,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14586,7 +14579,7 @@
         <v>93</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>105</v>
@@ -14598,10 +14591,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14612,10 +14605,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14641,16 +14634,16 @@
         <v>264</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="N101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14678,11 +14671,11 @@
         <v>177</v>
       </c>
       <c r="Y101" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="Z101" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="Z101" t="s" s="2">
-        <v>622</v>
-      </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14699,7 +14692,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14717,13 +14710,13 @@
         <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="AM101" t="s" s="2">
-        <v>624</v>
-      </c>
       <c r="AN101" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14734,10 +14727,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14763,16 +14756,16 @@
         <v>264</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14800,10 +14793,10 @@
         <v>256</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -14821,7 +14814,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14839,13 +14832,13 @@
         <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="AM102" t="s" s="2">
-        <v>624</v>
-      </c>
       <c r="AN102" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14856,10 +14849,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14974,10 +14967,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15068,7 +15061,7 @@
         <v>81</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>122</v>
@@ -15083,7 +15076,7 @@
         <v>82</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15094,10 +15087,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15190,7 +15183,7 @@
         <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>105</v>
@@ -15216,10 +15209,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15334,10 +15327,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15428,7 +15421,7 @@
         <v>81</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>122</v>
@@ -15443,7 +15436,7 @@
         <v>82</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15454,10 +15447,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15550,7 +15543,7 @@
         <v>93</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>105</v>
@@ -15576,10 +15569,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15670,7 +15663,7 @@
         <v>93</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>105</v>
@@ -15696,10 +15689,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15730,9 +15723,7 @@
       <c r="M110" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N110" t="s" s="2">
-        <v>521</v>
-      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>315</v>
       </c>
@@ -15792,7 +15783,7 @@
         <v>93</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>105</v>
@@ -15818,10 +15809,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15852,9 +15843,7 @@
       <c r="M111" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N111" t="s" s="2">
-        <v>521</v>
-      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>324</v>
       </c>
@@ -15914,7 +15903,7 @@
         <v>93</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>105</v>
@@ -15940,10 +15929,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16036,7 +16025,7 @@
         <v>93</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>105</v>
@@ -16062,10 +16051,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16158,7 +16147,7 @@
         <v>93</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>105</v>
@@ -16184,10 +16173,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16210,17 +16199,17 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16269,7 +16258,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16293,7 +16282,7 @@
         <v>82</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16304,10 +16293,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16333,10 +16322,10 @@
         <v>107</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16387,7 +16376,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16408,10 +16397,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16422,10 +16411,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16448,16 +16437,16 @@
         <v>94</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16507,7 +16496,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16528,10 +16517,10 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AN116" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16542,10 +16531,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16568,16 +16557,16 @@
         <v>94</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16627,7 +16616,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16648,10 +16637,10 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16662,10 +16651,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16688,19 +16677,19 @@
         <v>94</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="N118" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="M118" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N118" t="s" s="2">
+      <c r="O118" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16749,7 +16738,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16761,19 +16750,19 @@
         <v>82</v>
       </c>
       <c r="AJ118" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="AK118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM118" t="s" s="2">
+      <c r="AN118" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16784,10 +16773,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16902,10 +16891,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17022,14 +17011,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -17051,10 +17040,10 @@
         <v>114</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>117</v>
@@ -17109,7 +17098,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17144,10 +17133,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17173,16 +17162,16 @@
         <v>264</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17231,7 +17220,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>93</v>
@@ -17249,7 +17238,7 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>357</v>
@@ -17266,10 +17255,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17292,16 +17281,16 @@
         <v>94</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>685</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>444</v>
@@ -17332,37 +17321,37 @@
         <v>256</v>
       </c>
       <c r="Y123" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="Z123" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="Z123" t="s" s="2">
+      <c r="AA123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI123" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>105</v>
@@ -17371,7 +17360,7 @@
         <v>82</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>449</v>
@@ -17388,10 +17377,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17417,13 +17406,13 @@
         <v>264</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>508</v>
@@ -17475,7 +17464,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17484,7 +17473,7 @@
         <v>93</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>105</v>
@@ -17510,14 +17499,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17539,16 +17528,16 @@
         <v>264</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N125" t="s" s="2">
+      <c r="O125" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
@@ -17576,10 +17565,10 @@
         <v>155</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>82</v>
@@ -17597,7 +17586,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17615,27 +17604,27 @@
         <v>82</v>
       </c>
       <c r="AL125" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM125" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AM125" t="s" s="2">
+      <c r="AN125" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AN125" t="s" s="2">
+      <c r="AO125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP125" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP125" t="s" s="2">
-        <v>535</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17661,16 +17650,16 @@
         <v>83</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M126" t="s" s="2">
-        <v>699</v>
-      </c>
       <c r="N126" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="O126" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17719,7 +17708,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17740,10 +17729,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AN126" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4853" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4857" uniqueCount="700">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:33:33+00:00</t>
+    <t>2024-10-02T08:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1633,6 +1633,9 @@
   </si>
   <si>
     <t>Observation.dataAbsentReason.coding.code</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason.coding.display</t>
@@ -11095,7 +11098,7 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>122</v>
@@ -11110,7 +11113,7 @@
         <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11217,7 +11220,7 @@
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -11455,7 +11458,7 @@
         <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>122</v>
@@ -11470,7 +11473,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11577,7 +11580,7 @@
         <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>105</v>
@@ -11697,7 +11700,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11757,7 +11760,9 @@
       <c r="M77" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>315</v>
       </c>
@@ -11817,7 +11822,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11843,10 +11848,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11877,7 +11882,9 @@
       <c r="M78" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>324</v>
       </c>
@@ -11937,7 +11944,7 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>105</v>
@@ -11963,10 +11970,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12059,7 +12066,7 @@
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>105</v>
@@ -12085,10 +12092,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12181,7 +12188,7 @@
         <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>105</v>
@@ -12207,14 +12214,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12236,16 +12243,16 @@
         <v>264</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12274,7 +12281,7 @@
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12292,7 +12299,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12310,27 +12317,27 @@
         <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12353,19 +12360,19 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12414,7 +12421,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12435,10 +12442,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12449,10 +12456,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12478,13 +12485,13 @@
         <v>264</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12514,7 +12521,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12532,7 +12539,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12550,27 +12557,27 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12685,10 +12692,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12805,10 +12812,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12872,7 +12879,7 @@
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -12925,10 +12932,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13047,10 +13054,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13076,16 +13083,16 @@
         <v>264</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13114,7 +13121,7 @@
       </c>
       <c r="Y88" s="2"/>
       <c r="Z88" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -13132,7 +13139,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13153,10 +13160,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13167,10 +13174,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13285,10 +13292,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13405,10 +13412,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13472,7 +13479,7 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13525,10 +13532,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13647,10 +13654,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13673,16 +13680,16 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13732,7 +13739,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13750,27 +13757,27 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13793,16 +13800,16 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13852,7 +13859,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13870,27 +13877,27 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13913,19 +13920,19 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13974,7 +13981,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13986,7 +13993,7 @@
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
@@ -13995,10 +14002,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -14009,10 +14016,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14127,10 +14134,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14247,14 +14254,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14276,10 +14283,10 @@
         <v>114</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>117</v>
@@ -14334,7 +14341,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14369,10 +14376,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14395,13 +14402,13 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14452,7 +14459,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14461,7 +14468,7 @@
         <v>93</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>105</v>
@@ -14473,10 +14480,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14487,10 +14494,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14513,13 +14520,13 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14570,7 +14577,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14579,7 +14586,7 @@
         <v>93</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>105</v>
@@ -14591,10 +14598,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14605,10 +14612,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14634,16 +14641,16 @@
         <v>264</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14671,10 +14678,10 @@
         <v>177</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14692,7 +14699,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14710,13 +14717,13 @@
         <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14727,10 +14734,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14756,16 +14763,16 @@
         <v>264</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14793,10 +14800,10 @@
         <v>256</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -14814,7 +14821,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14832,13 +14839,13 @@
         <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14849,10 +14856,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14967,10 +14974,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15061,7 +15068,7 @@
         <v>81</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>122</v>
@@ -15076,7 +15083,7 @@
         <v>82</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15087,10 +15094,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15183,7 +15190,7 @@
         <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>105</v>
@@ -15209,10 +15216,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15327,10 +15334,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15421,7 +15428,7 @@
         <v>81</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>122</v>
@@ -15436,7 +15443,7 @@
         <v>82</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15447,10 +15454,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15543,7 +15550,7 @@
         <v>93</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>105</v>
@@ -15569,10 +15576,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15663,7 +15670,7 @@
         <v>93</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>105</v>
@@ -15689,10 +15696,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15723,7 +15730,9 @@
       <c r="M110" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>315</v>
       </c>
@@ -15783,7 +15792,7 @@
         <v>93</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>105</v>
@@ -15809,10 +15818,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15843,7 +15852,9 @@
       <c r="M111" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N111" s="2"/>
+      <c r="N111" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>324</v>
       </c>
@@ -15903,7 +15914,7 @@
         <v>93</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>105</v>
@@ -15929,10 +15940,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16025,7 +16036,7 @@
         <v>93</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>105</v>
@@ -16051,10 +16062,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16147,7 +16158,7 @@
         <v>93</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>105</v>
@@ -16173,10 +16184,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16199,17 +16210,17 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16258,7 +16269,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16282,7 +16293,7 @@
         <v>82</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16293,10 +16304,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16322,10 +16333,10 @@
         <v>107</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16376,7 +16387,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16397,10 +16408,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16411,10 +16422,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16437,16 +16448,16 @@
         <v>94</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16496,7 +16507,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16517,10 +16528,10 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16531,10 +16542,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16557,16 +16568,16 @@
         <v>94</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16616,7 +16627,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16637,10 +16648,10 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16651,10 +16662,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16677,19 +16688,19 @@
         <v>94</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16738,7 +16749,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16750,7 +16761,7 @@
         <v>82</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
@@ -16759,10 +16770,10 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16773,10 +16784,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16891,10 +16902,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17011,14 +17022,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -17040,10 +17051,10 @@
         <v>114</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>117</v>
@@ -17098,7 +17109,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17133,10 +17144,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17162,16 +17173,16 @@
         <v>264</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17220,7 +17231,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>93</v>
@@ -17238,7 +17249,7 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>357</v>
@@ -17255,10 +17266,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17281,16 +17292,16 @@
         <v>94</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>444</v>
@@ -17321,10 +17332,10 @@
         <v>256</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>82</v>
@@ -17342,7 +17353,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17351,7 +17362,7 @@
         <v>93</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>105</v>
@@ -17360,7 +17371,7 @@
         <v>82</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>449</v>
@@ -17377,10 +17388,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17406,13 +17417,13 @@
         <v>264</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>508</v>
@@ -17464,7 +17475,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17473,7 +17484,7 @@
         <v>93</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>105</v>
@@ -17499,14 +17510,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17528,16 +17539,16 @@
         <v>264</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
@@ -17565,28 +17576,28 @@
         <v>155</v>
       </c>
       <c r="Y125" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF125" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17604,27 +17615,27 @@
         <v>82</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17650,16 +17661,16 @@
         <v>83</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17708,7 +17719,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17729,10 +17740,10 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T08:34:04+00:00</t>
+    <t>2024-10-30T13:35:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:35:51+00:00</t>
+    <t>2024-11-18T15:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T15:35:30+00:00</t>
+    <t>2024-12-11T16:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:06:25+00:00</t>
+    <t>2024-12-11T16:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:39+00:00</t>
+    <t>2024-12-13T13:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:55+00:00</t>
+    <t>2024-12-13T15:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
+++ b/main/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$115</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4857" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4435" uniqueCount="690">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T15:58:46+00:00</t>
+    <t>2024-12-18T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1980,40 +1980,10 @@
     <t>Need to be able to identify the target population for proper interpretation.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J148-ReferenceRangeAppliesTo-CISIS/FHIR/JDV-J148-ReferenceRangeAppliesTo-CISIS</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.id</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.extension</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.code</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.appliesTo.text</t>
+    <t>Codes identifying the population the reference range applies to.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -2516,7 +2486,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP126"/>
+  <dimension ref="A1:AP115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2525,8 +2495,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.09375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.3046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="26.921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -2549,8 +2519,8 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="112.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="112.42578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="93.578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -5066,7 +5036,7 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>122</v>
@@ -14797,13 +14767,13 @@
         <v>82</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="Y102" t="s" s="2">
         <v>630</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -14856,10 +14826,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14882,16 +14852,18 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>107</v>
+        <v>633</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>108</v>
+        <v>634</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>109</v>
+        <v>635</v>
       </c>
       <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
       </c>
@@ -14939,7 +14911,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>110</v>
+        <v>632</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14951,7 +14923,7 @@
         <v>82</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -14963,7 +14935,7 @@
         <v>82</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>111</v>
+        <v>637</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14974,21 +14946,21 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>82</v>
@@ -15000,17 +14972,15 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>115</v>
+        <v>639</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15047,31 +15017,31 @@
         <v>82</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>121</v>
+        <v>638</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>82</v>
@@ -15080,10 +15050,10 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>82</v>
+        <v>610</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>196</v>
+        <v>641</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15094,10 +15064,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15120,20 +15090,18 @@
         <v>94</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>151</v>
+        <v>643</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>282</v>
+        <v>644</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>283</v>
+        <v>645</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15181,7 +15149,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>286</v>
+        <v>642</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15190,7 +15158,7 @@
         <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>105</v>
@@ -15202,10 +15170,10 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>287</v>
+        <v>647</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>288</v>
+        <v>648</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15216,10 +15184,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15230,7 +15198,7 @@
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -15239,18 +15207,20 @@
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>107</v>
+        <v>650</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>108</v>
+        <v>651</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>653</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15299,19 +15269,19 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>110</v>
+        <v>649</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
@@ -15320,10 +15290,10 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>82</v>
+        <v>647</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>111</v>
+        <v>654</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15334,14 +15304,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15351,27 +15321,29 @@
         <v>81</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>114</v>
+        <v>590</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>115</v>
+        <v>656</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>116</v>
+        <v>656</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>657</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>658</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15407,19 +15379,19 @@
         <v>82</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>121</v>
+        <v>655</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15428,10 +15400,10 @@
         <v>81</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>122</v>
+        <v>659</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
@@ -15440,10 +15412,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>82</v>
+        <v>660</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>196</v>
+        <v>661</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15454,10 +15426,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15465,7 +15437,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>93</v>
@@ -15477,23 +15449,19 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>295</v>
+        <v>108</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15541,7 +15509,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15550,10 +15518,10 @@
         <v>93</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
@@ -15562,10 +15530,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15576,21 +15544,21 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>82</v>
@@ -15599,19 +15567,19 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>305</v>
+        <v>115</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>306</v>
+        <v>116</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>307</v>
+        <v>117</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15661,19 +15629,19 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>82</v>
@@ -15682,10 +15650,10 @@
         <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>310</v>
+        <v>111</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15696,45 +15664,45 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>82</v>
+        <v>601</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>313</v>
+        <v>602</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>314</v>
+        <v>603</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>521</v>
+        <v>117</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15783,19 +15751,19 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>317</v>
+        <v>604</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -15804,10 +15772,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15818,10 +15786,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15829,13 +15797,13 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>82</v>
@@ -15844,19 +15812,19 @@
         <v>94</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>322</v>
+        <v>666</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>323</v>
+        <v>667</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>521</v>
+        <v>668</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>324</v>
+        <v>669</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15881,13 +15849,13 @@
         <v>82</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>82</v>
@@ -15905,16 +15873,16 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>325</v>
+        <v>665</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>105</v>
@@ -15923,16 +15891,16 @@
         <v>82</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>82</v>
+        <v>670</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>82</v>
@@ -15940,10 +15908,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>640</v>
+        <v>671</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>640</v>
+        <v>671</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15957,7 +15925,7 @@
         <v>93</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>82</v>
@@ -15966,19 +15934,19 @@
         <v>94</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>330</v>
+        <v>672</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>331</v>
+        <v>673</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>332</v>
+        <v>674</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>333</v>
+        <v>675</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>334</v>
+        <v>444</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -16003,13 +15971,13 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>82</v>
+        <v>676</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>82</v>
+        <v>677</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -16027,7 +15995,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>335</v>
+        <v>671</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16036,7 +16004,7 @@
         <v>93</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>205</v>
+        <v>678</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>105</v>
@@ -16045,27 +16013,27 @@
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>82</v>
+        <v>679</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>336</v>
+        <v>449</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>337</v>
+        <v>450</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16079,28 +16047,28 @@
         <v>93</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>340</v>
+        <v>681</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>341</v>
+        <v>682</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>342</v>
+        <v>683</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>343</v>
+        <v>508</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16125,13 +16093,13 @@
         <v>82</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>82</v>
+        <v>509</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16149,7 +16117,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>344</v>
+        <v>680</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16158,7 +16126,7 @@
         <v>93</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>205</v>
+        <v>684</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>105</v>
@@ -16170,10 +16138,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>345</v>
+        <v>196</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>346</v>
+        <v>512</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16184,21 +16152,21 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>642</v>
+        <v>685</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>642</v>
+        <v>685</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>82</v>
+        <v>526</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>82</v>
@@ -16210,17 +16178,19 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>643</v>
+        <v>264</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>644</v>
+        <v>527</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="O114" t="s" s="2">
-        <v>646</v>
+        <v>530</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16245,13 +16215,13 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>82</v>
+        <v>686</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16269,13 +16239,13 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>642</v>
+        <v>685</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>82</v>
@@ -16287,27 +16257,27 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>647</v>
+        <v>534</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16318,7 +16288,7 @@
         <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>82</v>
@@ -16330,16 +16300,20 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>649</v>
+        <v>688</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
+        <v>689</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16387,13 +16361,13 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>82</v>
@@ -16408,1352 +16382,20 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>651</v>
+        <v>597</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="O117" s="2"/>
-      <c r="P117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="P118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP118" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP119" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O120" s="2"/>
-      <c r="P120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="P121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP121" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="P122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AP122" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="P123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP123" t="s" s="2">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="P124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP124" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="P125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP125" t="s" s="2">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="P126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP126" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP126">
+  <autoFilter ref="A1:AP115">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17763,7 +16405,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI125">
+  <conditionalFormatting sqref="A2:AI114">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
